--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3323632.619810631</v>
+        <v>3321088.810303549</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>85.20115868761653</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>212.5689651179052</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>160.1693433169005</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>113.9947077944579</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.972884575953313</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>204.2688325015154</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>212.5689651179051</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="D5" t="n">
-        <v>219.4450108596165</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>46.29191215363748</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>178.7818072471469</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,13 +1057,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>114.6128256968458</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>69.61426448774567</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>232.1196458343568</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>119.9986126802123</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614512</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>18.47335059660806</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.602666125637</v>
+        <v>134.379115290174</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640956</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>50.34571932179844</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>198.7422597397479</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>85.08368458989422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2327,10 +2327,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417131</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428298</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337059</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710092</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881315</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472165</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -3029,19 +3029,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206846</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881317</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576197</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648941</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656056</v>
       </c>
     </row>
     <row r="39">
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790584</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,22 +3740,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620686</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417129</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D43" t="n">
-        <v>123.9815576456783</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605715549</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,13 +4037,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724358</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571245</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899465</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899465</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276843</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>814.482942342551</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243026</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243026</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>840.1393936243026</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.1393936243026</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7220043479542</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>939.7093505166736</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U3" t="n">
-        <v>711.5735045534871</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V3" t="n">
-        <v>711.5735045534871</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="W3" t="n">
-        <v>711.5735045534871</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="X3" t="n">
-        <v>503.7220043479542</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="Y3" t="n">
-        <v>503.7220043479542</v>
+        <v>357.3373551528642</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.0112961696257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>177.0112961696257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>177.0112961696257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>177.0112961696257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>177.0112961696257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>177.0112961696257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>23.08992310310364</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407079</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407079</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407079</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="V4" t="n">
-        <v>671.3785036348211</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="W4" t="n">
-        <v>405.000847067643</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>177.0112961696257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>177.0112961696257</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
         <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>300.4385797407429</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4565,22 +4565,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4607,10 +4607,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216.7910272872682</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>216.7910272872682</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>67.85661762601694</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4647,19 +4647,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>510.4865753600648</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>275.3344671283221</v>
       </c>
       <c r="W6" t="n">
-        <v>800.618163277823</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X6" t="n">
-        <v>592.7666630722902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>385.0063643073362</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4726,16 +4726,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075542</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>672.7073324319316</v>
       </c>
       <c r="V7" t="n">
-        <v>926.0629918407075</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W7" t="n">
-        <v>855.7455529641967</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X7" t="n">
-        <v>855.7455529641967</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y7" t="n">
-        <v>634.9529738206666</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1410.357830041763</v>
+        <v>1708.0901659888</v>
       </c>
       <c r="C8" t="n">
-        <v>1041.395313101352</v>
+        <v>1339.127649048389</v>
       </c>
       <c r="D8" t="n">
-        <v>683.1296144946011</v>
+        <v>980.8619504416383</v>
       </c>
       <c r="E8" t="n">
-        <v>297.3413618963569</v>
+        <v>595.073697843394</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478432</v>
+        <v>588.1281970941906</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685553</v>
+        <v>172.4219750858578</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467165</v>
+        <v>187.3702251467157</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607408</v>
+        <v>442.1757437607393</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045908</v>
+        <v>795.1862829045881</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995223</v>
+        <v>1219.64796299522</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209575</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940586</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550186</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.564622661151</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342769</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342769</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342777</v>
+        <v>2351.810676439042</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342777</v>
+        <v>2098.229497964612</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342777</v>
+        <v>2098.229497964612</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342777</v>
+        <v>2098.229497964612</v>
       </c>
       <c r="X8" t="n">
-        <v>2187.097002081697</v>
+        <v>2098.229497964612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.957670105885</v>
+        <v>1708.0901659888</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010636</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199366</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586854</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532299</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801149</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763031</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>69.87120530443929</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>113.4887579637179</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148171</v>
+        <v>298.085754314816</v>
       </c>
       <c r="L9" t="n">
-        <v>776.7040495714555</v>
+        <v>592.621737748296</v>
       </c>
       <c r="M9" t="n">
-        <v>1139.770518045756</v>
+        <v>955.6882062225957</v>
       </c>
       <c r="N9" t="n">
-        <v>1526.854920518324</v>
+        <v>1564.570720174567</v>
       </c>
       <c r="O9" t="n">
-        <v>1858.741730505713</v>
+        <v>2198.310003359402</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888875</v>
+        <v>2445.345361789025</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442619</v>
+        <v>2560.562760342769</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342769</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251684</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685333</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751563</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.57421351982</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791618</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586086</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821132</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274017</v>
+        <v>349.2409882015842</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994948</v>
+        <v>349.2409882015842</v>
       </c>
       <c r="D10" t="n">
-        <v>346.014296287159</v>
+        <v>199.1243487892485</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047659</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380118</v>
+        <v>76.63468308380081</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676562</v>
+        <v>248.2500215676555</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336891</v>
+        <v>523.3850043368899</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904022</v>
+        <v>823.8653899904006</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101609</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931086</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.490387616495</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.76914547736</v>
+        <v>1533.156055412614</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.76914547736</v>
+        <v>1533.156055412614</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.76914547736</v>
+        <v>1310.174753887019</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.76914547736</v>
+        <v>1021.056380381661</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.91488353615</v>
+        <v>1021.056380381661</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.497713499189</v>
+        <v>731.6392103447006</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>731.6392103447006</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576414</v>
+        <v>530.8894530318239</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5069,7 +5069,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,16 +5361,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,22 +5598,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,19 +5653,19 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,43 +6218,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466574</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438164</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>560.782578970608</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>391.846396042701</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>241.7297566303652</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615998</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797191</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989559</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424039</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830891</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830891</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851786</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>175.8744207939057</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>175.8744207939057</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096647</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.7297566303652</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6923,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.355259300792</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>847.6442739835338</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835338</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>697.527634571198</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888047</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>235.528494205774</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919727</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1029.292738813774</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192613</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7184,37 +7184,37 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239599</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397189</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820879</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820879</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551879</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192613</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.230692780394</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>315.9123021921465</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898186988</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851786</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7634,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>589.142269263731</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684178</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991051</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.527634571198</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.527634571198</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888047</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>235.528494205774</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2040.654127232582</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1751.57890057678</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1496.894412370893</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1496.894412370893</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1268.904861472875</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1048.112282329345</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446527</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415541</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127221</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>185.9417291143006</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.0384964438417</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>304.90148807823</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9861830434855</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>55.21102825632967</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194088</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823153</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534908</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823166</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318720081</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844822985</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.63391537253403</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>143.6212754172158</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485258</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778551</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778552</v>
-      </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.939721005</v>
-      </c>
       <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580772</v>
+        <v>390680.0076580753</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606948</v>
+        <v>507909.2320606967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>5.857201845683762e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101715</v>
+        <v>95270.23779101677</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608936</v>
+        <v>138058.0537608941</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768914</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768919</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768883</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768821</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768861</v>
+        <v>9947.144321768705</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768854</v>
+        <v>9947.144321768694</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768694</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768894</v>
+        <v>9947.144321768645</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768779</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768694</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768688</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567883</v>
+        <v>92902.86757567868</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26488,28 +26488,28 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253636.1572483086</v>
+        <v>-253636.157248308</v>
       </c>
       <c r="C6" t="n">
-        <v>426451.8233428844</v>
+        <v>426451.8233428842</v>
       </c>
       <c r="D6" t="n">
-        <v>117296.6638832055</v>
+        <v>117296.6638832069</v>
       </c>
       <c r="E6" t="n">
-        <v>107453.0335146344</v>
+        <v>107418.2955891966</v>
       </c>
       <c r="F6" t="n">
-        <v>615362.2655753293</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="G6" t="n">
-        <v>615362.2655753292</v>
+        <v>615327.5276498939</v>
       </c>
       <c r="H6" t="n">
-        <v>615362.2655753293</v>
+        <v>615327.5276498937</v>
       </c>
       <c r="I6" t="n">
-        <v>615362.2655753293</v>
+        <v>615327.5276498931</v>
       </c>
       <c r="J6" t="n">
-        <v>546363.111156215</v>
+        <v>546328.3732307798</v>
       </c>
       <c r="K6" t="n">
-        <v>615362.2655753294</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="L6" t="n">
-        <v>520092.0277843119</v>
+        <v>520057.2898588769</v>
       </c>
       <c r="M6" t="n">
-        <v>482644.2898798601</v>
+        <v>482609.5519544238</v>
       </c>
       <c r="N6" t="n">
-        <v>615362.2655753293</v>
+        <v>615327.5276498939</v>
       </c>
       <c r="O6" t="n">
-        <v>615362.2655753293</v>
+        <v>615327.527649894</v>
       </c>
       <c r="P6" t="n">
-        <v>615362.2655753291</v>
+        <v>615327.5276498941</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627815</v>
+        <v>933.7024595627798</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856941</v>
+        <v>640.1406900856923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933032</v>
+        <v>319.6474457933016</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788922</v>
+        <v>434.2730407788939</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.4268100841862</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139542</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015066</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841877</v>
+        <v>376.4268100841862</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139542</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.4268100841862</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139542</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>115.1832933522297</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>6.363840332966845</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>80.84627979041886</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,10 +27552,10 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>120.1776889488552</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>47.86881082231261</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>135.2380307610665</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>111.3531683017635</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>47.07268025640772</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.89177718681809</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,19 +27828,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>216.9087338488453</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>174.7563999073546</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>181.0348615400882</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465056</v>
+        <v>65.76608425465082</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164544541</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164536899</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28029,7 +28029,7 @@
         <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430997</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.7919240020296</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>19.84239361234688</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29047,10 +29047,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-1.641477528614854e-12</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.084075771919461e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,13 +29272,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8.300560239149491e-13</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,19 +29329,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-2.524036535334062e-12</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.196702507203993e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29509,22 +29509,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-2.829273367312673e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29746,22 +29746,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,10 +29803,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-3.041122909053229e-12</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30037,19 +30037,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-3.651274225497782e-12</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.588899127212024e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,13 +30271,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-2.435102833224382e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30457,19 +30457,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30508,10 +30508,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-8.549360341970364e-14</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.448980085387352e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30757,13 +30757,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.307322066693438e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885544</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546659</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157551</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972523</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763183</v>
+        <v>477.4691627763174</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354911</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359931</v>
+        <v>659.0954050359918</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525066</v>
+        <v>669.7602577525054</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307872</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983013</v>
+        <v>539.7691690983003</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542116</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864743</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140458</v>
+        <v>85.53465245140443</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944148</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.3002862181508435</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436923</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035134</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026248</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079419</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502157</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571266</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617159</v>
+        <v>508.8678404617149</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152197</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519068</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947584</v>
+        <v>383.5050724947577</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463693</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204785</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366387</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133924</v>
+        <v>8.09502415413391</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419029</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752554</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254839999</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415863</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954055</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772512</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.3240987490115</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023116</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462342</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046247</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.6389757708724</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939797</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.7064322130739</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658767</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794274</v>
+        <v>7.194100917942727</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865032</v>
+        <v>0.09183958618650304</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>430.400187030115</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32081,19 +32081,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744729</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,31 +32789,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>324.5433647340719</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32871,31 +32871,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,31 +33026,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>396.9700886943655</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33108,31 +33108,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U28" t="n">
         <v>0.1345549672467222</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,31 +33263,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>491.5977325265306</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33345,31 +33345,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U31" t="n">
         <v>0.1345549672467222</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>209.7242506524584</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33582,31 +33582,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U34" t="n">
         <v>0.1345549672467222</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>346.908461386035</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33819,31 +33819,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U37" t="n">
         <v>0.1345549672467222</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606946</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34056,31 +34056,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
         <v>0.1345549672467222</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>209.9499448422505</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34293,31 +34293,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
         <v>0.1345549672467222</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,28 +34451,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>285.8867128925971</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34530,31 +34530,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
         <v>0.1345549672467222</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966408</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043495</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250132</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.534313070566</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313369</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655038</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087203</v>
+        <v>428.7491718087191</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559157</v>
+        <v>440.3471941559145</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091005</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430317</v>
+        <v>308.5361733430307</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797621</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234258</v>
+        <v>20.20013907234215</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>62.90656844127523</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758574</v>
+        <v>186.4616124758567</v>
       </c>
       <c r="L9" t="n">
-        <v>483.4528234915539</v>
+        <v>297.5110943772524</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396976</v>
+        <v>366.7338065396966</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>615.0328423757281</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074632</v>
+        <v>640.1406900856923</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203654</v>
+        <v>249.5306650804274</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.3812106603478</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783555</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873298</v>
+        <v>25.68023017873276</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513683</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093277</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641522</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.7881314254628</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186644</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357659</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228536</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,7 +35504,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524547</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.4093308120536</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>254.8360547723472</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191315</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>349.0014880820862</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191315</v>
@@ -37008,7 +37008,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>82.88662398579167</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191315</v>
@@ -37245,7 +37245,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>212.9340539717047</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>134.6960534463643</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>71.39556506237632</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191315</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>151.9123054782669</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
         <v>394.3420143191315</v>
@@ -38193,7 +38193,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
